--- a/ISRaD_Data/Becker-Heidmann_2002.xlsx
+++ b/ISRaD_Data/Becker-Heidmann_2002.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29580" windowHeight="14680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -3129,15 +3129,6 @@
     <t>frc_14c_sd</t>
   </si>
   <si>
-    <t>frc_frc_modern</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sigma</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sd</t>
-  </si>
-  <si>
     <t>frc_mbc_method</t>
   </si>
   <si>
@@ -4205,6 +4196,15 @@
   </si>
   <si>
     <t>Acid-Base-Acid (ABA)</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sigma</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sd</t>
   </si>
 </sst>
 </file>
@@ -4259,19 +4259,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_layer" xfId="3"/>
   </cellStyles>
@@ -4889,7 +4893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -13647,7 +13651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AI1:AK1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -13755,121 +13761,121 @@
         <v>1032</v>
       </c>
       <c r="AI1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AL1" t="s">
         <v>1033</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>1034</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>1035</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>1036</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>1037</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>1038</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>1039</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>1040</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>1041</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>1042</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>1043</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>1044</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>1045</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>1046</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>1047</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>1048</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>1049</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>1050</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>1051</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>1052</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>1053</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>1054</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>1055</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>1056</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>1057</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>1058</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>1059</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>1060</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>1061</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>1062</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>1063</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>1064</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>1065</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>1066</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>1067</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>1068</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="2" spans="1:73">
@@ -13886,40 +13892,40 @@
         <v>352</v>
       </c>
       <c r="E2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H2" t="s">
         <v>1072</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>1073</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>1074</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>1075</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>1076</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>1077</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>1078</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>1079</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>1080</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1083</v>
       </c>
       <c r="Q2" t="s">
         <v>215</v>
@@ -13931,28 +13937,28 @@
         <v>217</v>
       </c>
       <c r="U2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="X2" t="s">
         <v>1084</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>1085</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>1086</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>1087</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>1088</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1091</v>
       </c>
       <c r="AC2" t="s">
         <v>236</v>
@@ -13964,22 +13970,22 @@
         <v>238</v>
       </c>
       <c r="AF2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AI2" t="s">
         <v>1092</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>1093</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>1094</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>1097</v>
       </c>
       <c r="AL2" t="s">
         <v>400</v>
@@ -14003,7 +14009,7 @@
         <v>409</v>
       </c>
       <c r="AS2" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AT2" t="s">
         <v>411</v>
@@ -14054,7 +14060,7 @@
         <v>427</v>
       </c>
       <c r="BJ2" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="BK2" t="s">
         <v>429</v>
@@ -14095,19 +14101,19 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I3" t="s">
         <v>1100</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>1101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1104</v>
       </c>
       <c r="N3" t="s">
         <v>150</v>
@@ -14167,49 +14173,49 @@
         <v>449</v>
       </c>
       <c r="AO3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AP3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AQ3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AR3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AT3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AU3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AV3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AW3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AY3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AZ3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="BA3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="BB3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="BD3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="BE3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="BF3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="BG3" t="s">
         <v>451</v>
@@ -14293,79 +14299,79 @@
         <v>1003</v>
       </c>
       <c r="F1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I1" t="s">
         <v>1106</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>1107</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>1108</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>1109</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>1110</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>1111</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>1112</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>1113</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>1114</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>1115</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>1116</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>1117</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>1118</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>1119</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>1120</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>1121</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>1122</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>1123</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>1124</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>1125</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>1126</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>1127</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -14376,16 +14382,16 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F2" t="s">
         <v>1131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1134</v>
       </c>
       <c r="G2" t="s">
         <v>358</v>
@@ -14400,28 +14406,28 @@
         <v>217</v>
       </c>
       <c r="K2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P2" t="s">
         <v>1135</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>1136</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>1137</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>1138</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>1139</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1142</v>
       </c>
       <c r="V2" t="s">
         <v>236</v>
@@ -14433,22 +14439,22 @@
         <v>238</v>
       </c>
       <c r="Y2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AB2" t="s">
         <v>1143</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>1144</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>1145</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -14468,13 +14474,13 @@
         <v>1002</v>
       </c>
       <c r="L3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="M3" t="s">
         <v>152</v>
       </c>
       <c r="P3" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="Q3" t="s">
         <v>156</v>
@@ -14519,136 +14525,136 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1" t="s">
         <v>1151</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1152</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>1154</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>1155</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>1156</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>1157</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>1158</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>1159</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>1160</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>1161</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>1162</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>1163</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>1164</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>1165</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>1166</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>1167</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>1168</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>1169</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>1170</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>1171</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>1172</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>1173</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>1174</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>1175</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>1176</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>1177</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>1178</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>1179</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>1180</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>1181</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>1182</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>1183</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>1184</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>1185</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>1186</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>1187</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>1188</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>1189</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>1190</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>1191</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -14731,7 +14737,7 @@
         <v>268</v>
       </c>
       <c r="AA2" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="AB2" t="s">
         <v>964</v>
@@ -14749,22 +14755,22 @@
         <v>973</v>
       </c>
       <c r="AG2" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="AH2" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="AI2" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="AK2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AL2" t="s">
         <v>1116</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>1119</v>
       </c>
       <c r="AM2" t="s">
         <v>1006</v>
@@ -14782,732 +14788,732 @@
         <v>1012</v>
       </c>
       <c r="AR2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="G3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AO3" t="s">
         <v>1197</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AP3" t="s">
         <v>1198</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D4" t="s">
         <v>1202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1205</v>
       </c>
       <c r="E4" t="s">
         <v>172</v>
       </c>
       <c r="F4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I4" t="s">
         <v>1206</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>1207</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1210</v>
       </c>
       <c r="K4" t="s">
         <v>170</v>
       </c>
       <c r="L4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O4" t="s">
         <v>1211</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>1212</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>1213</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="T4" t="s">
         <v>1214</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>1215</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
         <v>1216</v>
       </c>
-      <c r="R4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>1217</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Z4" t="s">
         <v>1218</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AA4" t="s">
         <v>1219</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AB4" t="s">
         <v>1220</v>
       </c>
-      <c r="X4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AD4" t="s">
         <v>1221</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AF4" t="s">
         <v>1222</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AG4" t="s">
         <v>1223</v>
       </c>
-      <c r="AC4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AI4" t="s">
         <v>1224</v>
       </c>
-      <c r="AE4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AJ4" t="s">
         <v>1225</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AK4" t="s">
         <v>1226</v>
       </c>
-      <c r="AH4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>1228</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>1229</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>1230</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>1231</v>
       </c>
-      <c r="AN4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>1233</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>1234</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="AR4" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E5" t="s">
         <v>1235</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1238</v>
       </c>
       <c r="F5" t="s">
         <v>173</v>
       </c>
       <c r="G5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J5" t="s">
         <v>1239</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>1240</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>1241</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>1242</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>1243</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>1244</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>1245</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>1246</v>
       </c>
-      <c r="O5" t="s">
+      <c r="T5" t="s">
         <v>1247</v>
       </c>
-      <c r="P5" t="s">
+      <c r="U5" t="s">
         <v>1248</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="V5" t="s">
         <v>1249</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>1250</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AA5" t="s">
         <v>1251</v>
       </c>
-      <c r="V5" t="s">
+      <c r="AB5" t="s">
         <v>1252</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AC5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AD5" t="s">
         <v>1253</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AF5" t="s">
         <v>1254</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AG5" t="s">
         <v>1255</v>
       </c>
-      <c r="AC5" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AH5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AI5" t="s">
         <v>1256</v>
       </c>
-      <c r="AE5" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="s">
         <v>1257</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AK5" t="s">
         <v>1258</v>
       </c>
-      <c r="AH5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AL5" t="s">
         <v>1259</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AM5" t="s">
         <v>1260</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
         <v>1261</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AO5" t="s">
         <v>1262</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AP5" t="s">
         <v>1263</v>
       </c>
-      <c r="AN5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>1266</v>
-      </c>
       <c r="AR5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E6" t="s">
         <v>1267</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>1268</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>1269</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>1270</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>1271</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>1272</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>1273</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>1274</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>1275</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>1276</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>1277</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1278</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1279</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1280</v>
       </c>
       <c r="Q6" t="s">
         <v>1002</v>
       </c>
       <c r="T6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="W6" t="s">
         <v>1281</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AA6" t="s">
         <v>1282</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
         <v>1283</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AC6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AF6" t="s">
         <v>1284</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AG6" t="s">
         <v>1285</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AH6" t="s">
         <v>1286</v>
       </c>
-      <c r="AC6" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>1280</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
         <v>1287</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AM6" t="s">
         <v>1288</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AN6" t="s">
         <v>1289</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AO6" t="s">
         <v>1290</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>1291</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>1293</v>
       </c>
       <c r="AP6" t="s">
         <v>36</v>
       </c>
       <c r="AR6" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G7" t="s">
         <v>1294</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>1295</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>1296</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>1297</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>1298</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>1299</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>1300</v>
       </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
         <v>1301</v>
       </c>
-      <c r="N7" t="s">
+      <c r="U7" t="s">
         <v>1302</v>
       </c>
-      <c r="P7" t="s">
+      <c r="V7" t="s">
         <v>1303</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>1304</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AC7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AF7" t="s">
         <v>1305</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AG7" t="s">
         <v>1306</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AI7" t="s">
         <v>1307</v>
       </c>
-      <c r="AC7" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>1303</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AM7" t="s">
         <v>1308</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AN7" t="s">
         <v>1309</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AO7" t="s">
         <v>1310</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AP7" t="s">
         <v>1311</v>
       </c>
-      <c r="AN7" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>1314</v>
-      </c>
       <c r="AR7" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G8" t="s">
         <v>1315</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H8" t="s">
         <v>1316</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>1317</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>1318</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>1319</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>1320</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>1321</v>
       </c>
-      <c r="M8" t="s">
+      <c r="T8" t="s">
         <v>1322</v>
       </c>
-      <c r="N8" t="s">
+      <c r="U8" t="s">
         <v>1323</v>
       </c>
-      <c r="P8" t="s">
+      <c r="V8" t="s">
         <v>1324</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AG8" t="s">
         <v>1325</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AM8" t="s">
         <v>1326</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AN8" t="s">
         <v>1327</v>
       </c>
-      <c r="W8" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1322</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AO8" t="s">
         <v>1328</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>1331</v>
       </c>
       <c r="AP8" t="s">
         <v>1002</v>
       </c>
       <c r="AR8" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G9" t="s">
         <v>1332</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
         <v>1333</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>1334</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>1335</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>1336</v>
       </c>
-      <c r="J9" t="s">
+      <c r="P9" t="s">
         <v>1337</v>
       </c>
-      <c r="L9" t="s">
+      <c r="T9" t="s">
         <v>1338</v>
       </c>
-      <c r="M9" t="s">
+      <c r="U9" t="s">
         <v>1339</v>
       </c>
-      <c r="P9" t="s">
+      <c r="AE9" t="s">
         <v>1340</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AG9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AM9" t="s">
         <v>1341</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AN9" t="s">
         <v>1342</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AO9" t="s">
         <v>1343</v>
       </c>
-      <c r="AG9" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AP9" t="s">
         <v>1344</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>1345</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>1346</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G10" t="s">
         <v>1348</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
         <v>1349</v>
       </c>
-      <c r="F10" t="s">
+      <c r="U10" t="s">
         <v>1350</v>
       </c>
-      <c r="G10" t="s">
+      <c r="AM10" t="s">
         <v>1351</v>
       </c>
-      <c r="H10" t="s">
+      <c r="AN10" t="s">
         <v>1352</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AO10" t="s">
         <v>1353</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AP10" t="s">
         <v>1354</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>1355</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>1356</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="B11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="U11" t="s">
         <v>1358</v>
       </c>
-      <c r="F11" t="s">
+      <c r="AM11" t="s">
         <v>1359</v>
       </c>
-      <c r="H11" t="s">
+      <c r="AN11" t="s">
         <v>1360</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AO11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AP11" t="s">
         <v>1361</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>1362</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="H12" t="s">
+        <v>1362</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AN12" t="s">
         <v>1365</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AO12" t="s">
         <v>1366</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>1368</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="13" spans="1:44">
       <c r="U13" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AO13" t="s">
         <v>1370</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>1371</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>1372</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="U14" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="AN14" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="AO14" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="U15" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="AN15" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="AO15" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="U16" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="AN16" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="AO16" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17" spans="40:41">
       <c r="AN17" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="AO17" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="18" spans="40:41">
       <c r="AN18" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="AO18" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="19" spans="40:41">
       <c r="AN19" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="AO19" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="20" spans="40:41">
       <c r="AN20" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="AO20" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="21" spans="40:41">
       <c r="AN21" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>
